--- a/Code/Results/Cases/Case_9_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.68192315186006</v>
+        <v>14.8851570575786</v>
       </c>
       <c r="C2">
-        <v>7.48692790471228</v>
+        <v>7.447244850816253</v>
       </c>
       <c r="D2">
-        <v>5.178090830335544</v>
+        <v>5.181020907983652</v>
       </c>
       <c r="E2">
-        <v>8.333041653721205</v>
+        <v>8.060409095289177</v>
       </c>
       <c r="F2">
-        <v>25.66009254569608</v>
+        <v>24.14480034286691</v>
       </c>
       <c r="G2">
-        <v>35.94727171698963</v>
+        <v>32.96662542566186</v>
       </c>
       <c r="H2">
-        <v>2.649903279781726</v>
+        <v>2.497352799466365</v>
       </c>
       <c r="I2">
-        <v>3.598830752891821</v>
+        <v>3.411338036659086</v>
       </c>
       <c r="J2">
-        <v>12.02897149687893</v>
+        <v>11.66562109775027</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.14110585783169</v>
       </c>
       <c r="M2">
-        <v>11.88317001242132</v>
+        <v>12.93516180691153</v>
       </c>
       <c r="N2">
-        <v>7.100210543663526</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.81814396965172</v>
       </c>
       <c r="P2">
-        <v>14.1145716439794</v>
+        <v>7.271566830777065</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.69717732330189</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.73652325396231</v>
+        <v>14.00319050830593</v>
       </c>
       <c r="C3">
-        <v>7.228689828692771</v>
+        <v>7.102707110586125</v>
       </c>
       <c r="D3">
-        <v>5.103890622269678</v>
+        <v>5.076601891270404</v>
       </c>
       <c r="E3">
-        <v>8.026083864386026</v>
+        <v>7.79411060151641</v>
       </c>
       <c r="F3">
-        <v>24.99093531892266</v>
+        <v>23.60538635376374</v>
       </c>
       <c r="G3">
-        <v>34.94404276455584</v>
+        <v>32.24272312787037</v>
       </c>
       <c r="H3">
-        <v>2.8726583848708</v>
+        <v>2.699926528491634</v>
       </c>
       <c r="I3">
-        <v>3.787641449689684</v>
+        <v>3.5755864248834</v>
       </c>
       <c r="J3">
-        <v>11.9198364106304</v>
+        <v>11.56023243011571</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.1514711179958</v>
       </c>
       <c r="M3">
-        <v>11.12629324374418</v>
+        <v>12.73673113738875</v>
       </c>
       <c r="N3">
-        <v>6.806035924915806</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.08306698759864</v>
       </c>
       <c r="P3">
-        <v>14.23537331749505</v>
+        <v>6.982081532904</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.83258763623898</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.12359449136178</v>
+        <v>13.42986606210477</v>
       </c>
       <c r="C4">
-        <v>7.065905478480522</v>
+        <v>6.885243390299771</v>
       </c>
       <c r="D4">
-        <v>5.05687374918216</v>
+        <v>5.010894122464761</v>
       </c>
       <c r="E4">
-        <v>7.82978596031319</v>
+        <v>7.623785732758098</v>
       </c>
       <c r="F4">
-        <v>24.57767817431426</v>
+        <v>23.27242770884785</v>
       </c>
       <c r="G4">
-        <v>34.32100320553911</v>
+        <v>31.79764316335679</v>
       </c>
       <c r="H4">
-        <v>3.014411199437101</v>
+        <v>2.828945726103898</v>
       </c>
       <c r="I4">
-        <v>3.908406703328915</v>
+        <v>3.681013134610267</v>
       </c>
       <c r="J4">
-        <v>11.85463433057613</v>
+        <v>11.4950211984582</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.15395157689436</v>
       </c>
       <c r="M4">
-        <v>10.63438337138625</v>
+        <v>12.63052430622486</v>
       </c>
       <c r="N4">
-        <v>6.618949181015024</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.60534125687636</v>
       </c>
       <c r="P4">
-        <v>14.31033542346894</v>
+        <v>6.798379920923098</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.91656159979485</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85896238255626</v>
+        <v>13.18175352443148</v>
       </c>
       <c r="C5">
-        <v>7.001726175301087</v>
+        <v>6.799660151112547</v>
       </c>
       <c r="D5">
-        <v>5.038138335703621</v>
+        <v>4.984699517656779</v>
       </c>
       <c r="E5">
-        <v>7.745329352091905</v>
+        <v>7.55034589788412</v>
       </c>
       <c r="F5">
-        <v>24.39766433266919</v>
+        <v>23.12584549122989</v>
       </c>
       <c r="G5">
-        <v>34.04559565502826</v>
+        <v>31.59745473543315</v>
       </c>
       <c r="H5">
-        <v>3.073879303138978</v>
+        <v>2.883104865763595</v>
       </c>
       <c r="I5">
-        <v>3.961458521191514</v>
+        <v>3.728154185296484</v>
       </c>
       <c r="J5">
-        <v>11.82483777658914</v>
+        <v>11.4648222822748</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.14672233748482</v>
       </c>
       <c r="M5">
-        <v>10.42585859929112</v>
+        <v>12.58600211596067</v>
       </c>
       <c r="N5">
-        <v>6.541594532774584</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.40287859143952</v>
       </c>
       <c r="P5">
-        <v>14.33899811070232</v>
+        <v>6.722513360408976</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.94932899097162</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.80620759919181</v>
+        <v>13.13206011075074</v>
       </c>
       <c r="C6">
-        <v>6.994969387046767</v>
+        <v>6.790869560004238</v>
       </c>
       <c r="D6">
-        <v>5.035975732456562</v>
+        <v>4.981521114005765</v>
       </c>
       <c r="E6">
-        <v>7.728083061770015</v>
+        <v>7.535174266996616</v>
       </c>
       <c r="F6">
-        <v>24.354052767021</v>
+        <v>23.08854791406304</v>
       </c>
       <c r="G6">
-        <v>33.97528023973597</v>
+        <v>31.54122698780635</v>
       </c>
       <c r="H6">
-        <v>3.084357729343564</v>
+        <v>2.892658644594749</v>
       </c>
       <c r="I6">
-        <v>3.973673847642546</v>
+        <v>3.739923384266533</v>
       </c>
       <c r="J6">
-        <v>11.81541220765532</v>
+        <v>11.45551063599749</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.13660536968118</v>
       </c>
       <c r="M6">
-        <v>10.38931886553125</v>
+        <v>12.57237319766637</v>
       </c>
       <c r="N6">
-        <v>6.529201851315262</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.36744388877799</v>
       </c>
       <c r="P6">
-        <v>14.34121939167892</v>
+        <v>6.710344606414662</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.95274564308255</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.09779506002179</v>
+        <v>13.39930791155878</v>
       </c>
       <c r="C7">
-        <v>7.075773057020308</v>
+        <v>6.893916807016967</v>
       </c>
       <c r="D7">
-        <v>5.05929193824782</v>
+        <v>5.015918125297645</v>
       </c>
       <c r="E7">
-        <v>7.82028386554731</v>
+        <v>7.616226762322398</v>
       </c>
       <c r="F7">
-        <v>24.53816924489633</v>
+        <v>23.21404449874237</v>
       </c>
       <c r="G7">
-        <v>34.25101284839354</v>
+        <v>31.8018302916359</v>
       </c>
       <c r="H7">
-        <v>3.016624413042329</v>
+        <v>2.831612073406214</v>
       </c>
       <c r="I7">
-        <v>3.917955572192438</v>
+        <v>3.69256448508989</v>
       </c>
       <c r="J7">
-        <v>11.84197799653083</v>
+        <v>11.43662427666086</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.11983037900475</v>
       </c>
       <c r="M7">
-        <v>10.627586012518</v>
+        <v>12.60397924227255</v>
       </c>
       <c r="N7">
-        <v>6.619383775894487</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.59247721849694</v>
       </c>
       <c r="P7">
-        <v>14.30380492023856</v>
+        <v>6.797923625960777</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.90882752113012</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.3353567103203</v>
+        <v>14.5434390140731</v>
       </c>
       <c r="C8">
-        <v>7.41258142204184</v>
+        <v>7.332682970170088</v>
       </c>
       <c r="D8">
-        <v>5.156429124382151</v>
+        <v>5.15687548555798</v>
       </c>
       <c r="E8">
-        <v>8.218295767502589</v>
+        <v>7.964119715203687</v>
       </c>
       <c r="F8">
-        <v>25.38252423153696</v>
+        <v>23.84568740194968</v>
       </c>
       <c r="G8">
-        <v>35.51834465701247</v>
+        <v>32.86207829116438</v>
       </c>
       <c r="H8">
-        <v>2.727468820206739</v>
+        <v>2.569833904493815</v>
       </c>
       <c r="I8">
-        <v>3.674245738326386</v>
+        <v>3.482213038639257</v>
       </c>
       <c r="J8">
-        <v>11.97501546222231</v>
+        <v>11.46360891947634</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.08422637219794</v>
       </c>
       <c r="M8">
-        <v>11.62289311940459</v>
+        <v>12.81107797229249</v>
       </c>
       <c r="N8">
-        <v>7.002037873801081</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.545885229019</v>
       </c>
       <c r="P8">
-        <v>14.14713804728379</v>
+        <v>7.172235052981081</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.72833155555467</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.53711491435825</v>
+        <v>16.58841916744442</v>
       </c>
       <c r="C9">
-        <v>8.021307138471801</v>
+        <v>8.138063785383094</v>
       </c>
       <c r="D9">
-        <v>5.330338377356107</v>
+        <v>5.406387367229287</v>
       </c>
       <c r="E9">
-        <v>8.949074592099468</v>
+        <v>8.599502831736249</v>
       </c>
       <c r="F9">
-        <v>27.07473100010303</v>
+        <v>25.20402378811351</v>
       </c>
       <c r="G9">
-        <v>38.04876831516768</v>
+        <v>34.78057919208872</v>
       </c>
       <c r="H9">
-        <v>2.196702906976609</v>
+        <v>2.088108266942651</v>
       </c>
       <c r="I9">
-        <v>3.219483701128724</v>
+        <v>3.086288333134304</v>
       </c>
       <c r="J9">
-        <v>12.27154336108863</v>
+        <v>11.69985531869289</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.06025143684863</v>
       </c>
       <c r="M9">
-        <v>13.36601877214908</v>
+        <v>13.39871719549057</v>
       </c>
       <c r="N9">
-        <v>7.696214456242519</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.23576020731872</v>
       </c>
       <c r="P9">
-        <v>13.85778459351012</v>
+        <v>7.85690996253709</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.39931719027349</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.90939377053903</v>
+        <v>17.83550727435962</v>
       </c>
       <c r="C10">
-        <v>8.485289395329861</v>
+        <v>8.717849920373359</v>
       </c>
       <c r="D10">
-        <v>5.467349221852085</v>
+        <v>5.612402401213781</v>
       </c>
       <c r="E10">
-        <v>9.277868974342478</v>
+        <v>8.87881678918262</v>
       </c>
       <c r="F10">
-        <v>28.11664679152842</v>
+        <v>25.9223215759972</v>
       </c>
       <c r="G10">
-        <v>39.54148836224494</v>
+        <v>36.2672131715888</v>
       </c>
       <c r="H10">
-        <v>1.863688803111363</v>
+        <v>1.792060152597027</v>
       </c>
       <c r="I10">
-        <v>2.920843744429714</v>
+        <v>2.832781139512957</v>
       </c>
       <c r="J10">
-        <v>12.43633604318357</v>
+        <v>11.57011579250071</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.89037817305881</v>
       </c>
       <c r="M10">
-        <v>14.49331064064296</v>
+        <v>13.75098892149595</v>
       </c>
       <c r="N10">
-        <v>8.037555279988364</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.30075482974571</v>
       </c>
       <c r="P10">
-        <v>13.61605165461568</v>
+        <v>8.188620220320612</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.12696138814369</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.83428408087785</v>
+        <v>17.75234582026282</v>
       </c>
       <c r="C11">
-        <v>9.013240606106203</v>
+        <v>9.284129260305814</v>
       </c>
       <c r="D11">
-        <v>5.678492458944842</v>
+        <v>5.89310529823216</v>
       </c>
       <c r="E11">
-        <v>8.112140344565168</v>
+        <v>7.78070836772146</v>
       </c>
       <c r="F11">
-        <v>27.16309813996339</v>
+        <v>24.82908281950387</v>
       </c>
       <c r="G11">
-        <v>37.6906152204131</v>
+        <v>35.36514124929902</v>
       </c>
       <c r="H11">
-        <v>2.839951681983113</v>
+        <v>2.80099378591673</v>
       </c>
       <c r="I11">
-        <v>2.868998913542067</v>
+        <v>2.798840623961663</v>
       </c>
       <c r="J11">
-        <v>12.01342033999674</v>
+        <v>10.71679159332532</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.06053533062414</v>
       </c>
       <c r="M11">
-        <v>14.78811949581247</v>
+        <v>13.09734623136913</v>
       </c>
       <c r="N11">
-        <v>7.064306828740222</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.53859751844452</v>
       </c>
       <c r="P11">
-        <v>13.267365207673</v>
+        <v>7.198879118418065</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.84719741292653</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.51042840226246</v>
+        <v>17.4634378297978</v>
       </c>
       <c r="C12">
-        <v>9.385168975361877</v>
+        <v>9.655680488816756</v>
       </c>
       <c r="D12">
-        <v>5.841959160040259</v>
+        <v>6.089268998567339</v>
       </c>
       <c r="E12">
-        <v>7.26355310678704</v>
+        <v>7.003394554421703</v>
       </c>
       <c r="F12">
-        <v>26.17220176716821</v>
+        <v>23.85537711192128</v>
       </c>
       <c r="G12">
-        <v>35.878346283254</v>
+        <v>34.12203371998845</v>
       </c>
       <c r="H12">
-        <v>4.209855875254483</v>
+        <v>4.183751004277914</v>
       </c>
       <c r="I12">
-        <v>2.865110093918451</v>
+        <v>2.796647446594178</v>
       </c>
       <c r="J12">
-        <v>11.636077115744</v>
+        <v>10.21688148441465</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.47573361909135</v>
       </c>
       <c r="M12">
-        <v>14.81237155416102</v>
+        <v>12.52625262975205</v>
       </c>
       <c r="N12">
-        <v>6.211182840489331</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.5444142261033</v>
       </c>
       <c r="P12">
-        <v>13.06115389480651</v>
+        <v>6.335660161343719</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.71303192661929</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.9387267348122</v>
+        <v>16.97571898678207</v>
       </c>
       <c r="C13">
-        <v>9.675692899772534</v>
+        <v>9.939965974753861</v>
       </c>
       <c r="D13">
-        <v>5.981105167008771</v>
+        <v>6.225896512909278</v>
       </c>
       <c r="E13">
-        <v>6.654549111098415</v>
+        <v>6.476819851577159</v>
       </c>
       <c r="F13">
-        <v>25.02223376361027</v>
+        <v>22.89496577262486</v>
       </c>
       <c r="G13">
-        <v>33.86147530726497</v>
+        <v>32.26775386447912</v>
       </c>
       <c r="H13">
-        <v>5.631270702884788</v>
+        <v>5.608421749608531</v>
       </c>
       <c r="I13">
-        <v>2.913270041307098</v>
+        <v>2.835711867063196</v>
       </c>
       <c r="J13">
-        <v>11.25097646484135</v>
+        <v>9.995411053781948</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.01499536947741</v>
       </c>
       <c r="M13">
-        <v>14.62620265403543</v>
+        <v>11.97535586601823</v>
       </c>
       <c r="N13">
-        <v>5.408774201329977</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.38042033387097</v>
       </c>
       <c r="P13">
-        <v>12.94216477957276</v>
+        <v>5.52898587337421</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.66830304554423</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.41279041391581</v>
+        <v>16.53158599808391</v>
       </c>
       <c r="C14">
-        <v>9.85153569954001</v>
+        <v>10.10965488596325</v>
       </c>
       <c r="D14">
-        <v>6.070016400363266</v>
+        <v>6.295808420561785</v>
       </c>
       <c r="E14">
-        <v>6.411287377807954</v>
+        <v>6.297995885563881</v>
       </c>
       <c r="F14">
-        <v>24.12875451818941</v>
+        <v>22.21055593536001</v>
       </c>
       <c r="G14">
-        <v>32.32921232647191</v>
+        <v>30.67884560021118</v>
       </c>
       <c r="H14">
-        <v>6.640668713170822</v>
+        <v>6.617878304683519</v>
       </c>
       <c r="I14">
-        <v>2.973241124449013</v>
+        <v>2.885105437729855</v>
       </c>
       <c r="J14">
-        <v>10.97576196141984</v>
+        <v>9.944964003514176</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.73803046690542</v>
       </c>
       <c r="M14">
-        <v>14.3974459989695</v>
+        <v>11.59662892889279</v>
       </c>
       <c r="N14">
-        <v>4.897146054572766</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.18536884690207</v>
       </c>
       <c r="P14">
-        <v>12.90118611843107</v>
+        <v>5.016656359056258</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.67488841571167</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.22323502991138</v>
+        <v>16.37203917019379</v>
       </c>
       <c r="C15">
-        <v>9.878927674647439</v>
+        <v>10.13686877404629</v>
       </c>
       <c r="D15">
-        <v>6.085885148513465</v>
+        <v>6.300209114659332</v>
       </c>
       <c r="E15">
-        <v>6.374506092039023</v>
+        <v>6.278702311924213</v>
       </c>
       <c r="F15">
-        <v>23.86595592190089</v>
+        <v>22.0317100708015</v>
       </c>
       <c r="G15">
-        <v>31.89222421929574</v>
+        <v>30.1583453784008</v>
       </c>
       <c r="H15">
-        <v>6.876723235941788</v>
+        <v>6.853164334684866</v>
       </c>
       <c r="I15">
-        <v>3.004061521054515</v>
+        <v>2.911787336401007</v>
       </c>
       <c r="J15">
-        <v>10.90382088694378</v>
+        <v>9.974476203028059</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.68393129577492</v>
       </c>
       <c r="M15">
-        <v>14.29447866255179</v>
+        <v>11.50213750460283</v>
       </c>
       <c r="N15">
-        <v>4.779611882942169</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.09859135428666</v>
       </c>
       <c r="P15">
-        <v>12.90503619816289</v>
+        <v>4.900153619109663</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.68944617809164</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71870767225107</v>
+        <v>15.94957201363765</v>
       </c>
       <c r="C16">
-        <v>9.645393159587698</v>
+        <v>9.909729640300489</v>
       </c>
       <c r="D16">
-        <v>6.000461419094032</v>
+        <v>6.158237278218862</v>
       </c>
       <c r="E16">
-        <v>6.320393160420595</v>
+        <v>6.235824833611011</v>
       </c>
       <c r="F16">
-        <v>23.58731956641495</v>
+        <v>22.0231983052103</v>
       </c>
       <c r="G16">
-        <v>31.5459557174986</v>
+        <v>29.2462027670632</v>
       </c>
       <c r="H16">
-        <v>6.688726403368284</v>
+        <v>6.656996436432176</v>
       </c>
       <c r="I16">
-        <v>3.127107552570187</v>
+        <v>3.014024210784914</v>
       </c>
       <c r="J16">
-        <v>10.90001881493757</v>
+        <v>10.36759113450218</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.85583664189714</v>
       </c>
       <c r="M16">
-        <v>13.855531052412</v>
+        <v>11.53197602964403</v>
       </c>
       <c r="N16">
-        <v>4.762881986045991</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.72647628612463</v>
       </c>
       <c r="P16">
-        <v>13.02625792452409</v>
+        <v>4.895682940694252</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.80431821208247</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61809461972122</v>
+        <v>15.86005081580985</v>
       </c>
       <c r="C17">
-        <v>9.364194376146648</v>
+        <v>9.627600845864125</v>
       </c>
       <c r="D17">
-        <v>5.885686965793769</v>
+        <v>6.016873704321501</v>
       </c>
       <c r="E17">
-        <v>6.372527118368519</v>
+        <v>6.258080927432756</v>
       </c>
       <c r="F17">
-        <v>23.8604890318868</v>
+        <v>22.36376280574225</v>
       </c>
       <c r="G17">
-        <v>32.11407781576352</v>
+        <v>29.50036453045481</v>
       </c>
       <c r="H17">
-        <v>5.980473907331239</v>
+        <v>5.940644183921049</v>
       </c>
       <c r="I17">
-        <v>3.190639359205599</v>
+        <v>3.067969568351904</v>
       </c>
       <c r="J17">
-        <v>11.04378170728699</v>
+        <v>10.66146003195489</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.13627302986313</v>
       </c>
       <c r="M17">
-        <v>13.63909226120709</v>
+        <v>11.74168904309391</v>
       </c>
       <c r="N17">
-        <v>5.012452035046259</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.53565907891298</v>
       </c>
       <c r="P17">
-        <v>13.13916291486688</v>
+        <v>5.154216112551244</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.89295433385732</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.87526599324393</v>
+        <v>16.0773502025941</v>
       </c>
       <c r="C18">
-        <v>9.01304728946778</v>
+        <v>9.271960856449189</v>
       </c>
       <c r="D18">
-        <v>5.736617962117688</v>
+        <v>5.855249733154648</v>
       </c>
       <c r="E18">
-        <v>6.712734708597873</v>
+        <v>6.529271359977049</v>
       </c>
       <c r="F18">
-        <v>24.66299650965806</v>
+        <v>23.1065112316548</v>
       </c>
       <c r="G18">
-        <v>33.57922217925064</v>
+        <v>30.6830960126675</v>
       </c>
       <c r="H18">
-        <v>4.77539191668954</v>
+        <v>4.724627824405357</v>
       </c>
       <c r="I18">
-        <v>3.197187000691556</v>
+        <v>3.07120995562073</v>
       </c>
       <c r="J18">
-        <v>11.34041205892203</v>
+        <v>10.98574593174657</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.58477163173591</v>
       </c>
       <c r="M18">
-        <v>13.59940427218874</v>
+        <v>12.16089586212304</v>
       </c>
       <c r="N18">
-        <v>5.58630843802869</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.49877061086688</v>
       </c>
       <c r="P18">
-        <v>13.2757189141875</v>
+        <v>5.734969684717961</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.98427503924388</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3611105883976</v>
+        <v>16.49200949685016</v>
       </c>
       <c r="C19">
-        <v>8.685255414438704</v>
+        <v>8.935375875318497</v>
       </c>
       <c r="D19">
-        <v>5.590290616865974</v>
+        <v>5.703108873065746</v>
       </c>
       <c r="E19">
-        <v>7.478800103752792</v>
+        <v>7.209460889382154</v>
       </c>
       <c r="F19">
-        <v>25.76328492592284</v>
+        <v>24.07027051659653</v>
       </c>
       <c r="G19">
-        <v>35.54201548107993</v>
+        <v>32.35867122523342</v>
       </c>
       <c r="H19">
-        <v>3.372692143968349</v>
+        <v>3.305425313196365</v>
       </c>
       <c r="I19">
-        <v>3.172767039736198</v>
+        <v>3.052468296703162</v>
       </c>
       <c r="J19">
-        <v>11.7208069194017</v>
+        <v>11.32639738602664</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.12143610057323</v>
       </c>
       <c r="M19">
-        <v>13.70032408353808</v>
+        <v>12.69910820636576</v>
       </c>
       <c r="N19">
-        <v>6.444393771929347</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.58869677899646</v>
       </c>
       <c r="P19">
-        <v>13.43571277642286</v>
+        <v>6.59778426853849</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.08350416395924</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.5014107343832</v>
+        <v>17.47914900035629</v>
       </c>
       <c r="C20">
-        <v>8.397259442391265</v>
+        <v>8.62676672196428</v>
       </c>
       <c r="D20">
-        <v>5.44149095354418</v>
+        <v>5.562668550100418</v>
       </c>
       <c r="E20">
-        <v>9.163944036041091</v>
+        <v>8.775756517525481</v>
       </c>
       <c r="F20">
-        <v>27.73557960085824</v>
+        <v>25.70010941696537</v>
       </c>
       <c r="G20">
-        <v>38.95910734718862</v>
+        <v>35.47039398896901</v>
       </c>
       <c r="H20">
-        <v>1.952916222019525</v>
+        <v>1.869469474706545</v>
       </c>
       <c r="I20">
-        <v>3.028946710473911</v>
+        <v>2.932402395141823</v>
       </c>
       <c r="J20">
-        <v>12.35414616410298</v>
+        <v>11.72304048770647</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.9024283631177</v>
       </c>
       <c r="M20">
-        <v>14.19489259955216</v>
+        <v>13.62145939029947</v>
       </c>
       <c r="N20">
-        <v>7.947462424871183</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.03676908703406</v>
       </c>
       <c r="P20">
-        <v>13.65830003239494</v>
+        <v>8.103173224624918</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.19134774507117</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63341099465612</v>
+        <v>18.41744339581308</v>
       </c>
       <c r="C21">
-        <v>8.690378872400375</v>
+        <v>8.915462165119827</v>
       </c>
       <c r="D21">
-        <v>5.519166906196098</v>
+        <v>5.73193363398828</v>
       </c>
       <c r="E21">
-        <v>9.663698090305544</v>
+        <v>9.246992327854429</v>
       </c>
       <c r="F21">
-        <v>28.79607313155235</v>
+        <v>26.12949575803334</v>
       </c>
       <c r="G21">
-        <v>40.56619762216071</v>
+        <v>38.2055091038313</v>
       </c>
       <c r="H21">
-        <v>1.652358469776624</v>
+        <v>1.606621815492247</v>
       </c>
       <c r="I21">
-        <v>2.78987486107043</v>
+        <v>2.737981816992568</v>
       </c>
       <c r="J21">
-        <v>12.57790589324902</v>
+        <v>10.92763681972681</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.75273127541954</v>
       </c>
       <c r="M21">
-        <v>15.0558696723106</v>
+        <v>13.88101952536876</v>
       </c>
       <c r="N21">
-        <v>8.405126011879355</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.75783861196599</v>
       </c>
       <c r="P21">
-        <v>13.52301360992801</v>
+        <v>8.542831907815213</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.97386891649823</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.32561830482658</v>
+        <v>18.98564208892261</v>
       </c>
       <c r="C22">
-        <v>8.883146614886069</v>
+        <v>9.100403179151222</v>
       </c>
       <c r="D22">
-        <v>5.572611238867509</v>
+        <v>5.849066654788698</v>
       </c>
       <c r="E22">
-        <v>9.906786880148767</v>
+        <v>9.478753957679906</v>
       </c>
       <c r="F22">
-        <v>29.44034220246593</v>
+        <v>26.35114778481351</v>
       </c>
       <c r="G22">
-        <v>41.52883907067921</v>
+        <v>40.01356588715291</v>
       </c>
       <c r="H22">
-        <v>1.644880805965907</v>
+        <v>1.665956075607496</v>
       </c>
       <c r="I22">
-        <v>2.628227605371754</v>
+        <v>2.602450637928401</v>
       </c>
       <c r="J22">
-        <v>12.71157816680163</v>
+        <v>10.37958484817654</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.62775381992716</v>
       </c>
       <c r="M22">
-        <v>15.58792942094037</v>
+        <v>14.02735533928641</v>
       </c>
       <c r="N22">
-        <v>8.626619964592795</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.19704790885039</v>
       </c>
       <c r="P22">
-        <v>13.42845705970698</v>
+        <v>8.752173641868849</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.82613582332936</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.97834155017425</v>
+        <v>18.71476811959944</v>
       </c>
       <c r="C23">
-        <v>8.769392322689532</v>
+        <v>8.997655870975107</v>
       </c>
       <c r="D23">
-        <v>5.540828211774185</v>
+        <v>5.776295471714158</v>
       </c>
       <c r="E23">
-        <v>9.785753129301138</v>
+        <v>9.359871533817032</v>
       </c>
       <c r="F23">
-        <v>29.13425050358968</v>
+        <v>26.31672720063916</v>
       </c>
       <c r="G23">
-        <v>41.08203013704471</v>
+        <v>38.94605870450242</v>
       </c>
       <c r="H23">
-        <v>1.567571147435239</v>
+        <v>1.588258670886846</v>
       </c>
       <c r="I23">
-        <v>2.701646847525328</v>
+        <v>2.65876812793349</v>
       </c>
       <c r="J23">
-        <v>12.65341082557527</v>
+        <v>10.7796976718977</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.73603542186167</v>
       </c>
       <c r="M23">
-        <v>15.30962214059713</v>
+        <v>13.99512120112112</v>
       </c>
       <c r="N23">
-        <v>8.507585434403197</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.98008569404456</v>
       </c>
       <c r="P23">
-        <v>13.48635487532336</v>
+        <v>8.641265514505113</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.91522636603882</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.57400047390541</v>
+        <v>17.5442742285927</v>
       </c>
       <c r="C24">
-        <v>8.348943689112126</v>
+        <v>8.567256487641464</v>
       </c>
       <c r="D24">
-        <v>5.423027049685713</v>
+        <v>5.540666379063315</v>
       </c>
       <c r="E24">
-        <v>9.299801460019275</v>
+        <v>8.904370700085789</v>
       </c>
       <c r="F24">
-        <v>27.90419395764811</v>
+        <v>25.85494590590156</v>
       </c>
       <c r="G24">
-        <v>39.26292117923378</v>
+        <v>35.73169701378519</v>
       </c>
       <c r="H24">
-        <v>1.930712327795512</v>
+        <v>1.847417805905673</v>
       </c>
       <c r="I24">
-        <v>3.007965623911524</v>
+        <v>2.908486429888149</v>
       </c>
       <c r="J24">
-        <v>12.41567581557783</v>
+        <v>11.78452622857104</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.99974981479538</v>
       </c>
       <c r="M24">
-        <v>14.20373527410618</v>
+        <v>13.71580620401581</v>
       </c>
       <c r="N24">
-        <v>8.045018247751791</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.04499837993651</v>
       </c>
       <c r="P24">
-        <v>13.69496077579523</v>
+        <v>8.201468514921251</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.21722325061438</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.93577724117122</v>
+        <v>16.03715560335516</v>
       </c>
       <c r="C25">
-        <v>7.87839585223514</v>
+        <v>7.957040977969069</v>
       </c>
       <c r="D25">
-        <v>5.289627096817026</v>
+        <v>5.343532607716573</v>
       </c>
       <c r="E25">
-        <v>8.7448943886062</v>
+        <v>8.419605945690439</v>
       </c>
       <c r="F25">
-        <v>26.55920351361661</v>
+        <v>24.80934543198136</v>
       </c>
       <c r="G25">
-        <v>37.26330754560986</v>
+        <v>34.06727097355866</v>
       </c>
       <c r="H25">
-        <v>2.338566625320459</v>
+        <v>2.215992293441365</v>
       </c>
       <c r="I25">
-        <v>3.354936043034796</v>
+        <v>3.207913720618173</v>
       </c>
       <c r="J25">
-        <v>12.16855488425395</v>
+        <v>11.67999396962075</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.04604114703281</v>
       </c>
       <c r="M25">
-        <v>12.91121935130024</v>
+        <v>13.20493153008727</v>
       </c>
       <c r="N25">
-        <v>7.516914090243082</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.80282519230267</v>
       </c>
       <c r="P25">
-        <v>13.92365649204949</v>
+        <v>7.680745813183925</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.48247208221981</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
